--- a/app-assets/upload/import_data.xlsx
+++ b/app-assets/upload/import_data.xlsx
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,52 +437,39 @@
     <col min="1" max="1" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>427303</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>427285</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>420096</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>427126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>427120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>426876</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>426684</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>426682</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>398614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>407288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>410033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>426478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>426473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>426433</v>
       </c>
     </row>
   </sheetData>
